--- a/Technology/Hardware/Fabrinet.xlsx
+++ b/Technology/Hardware/Fabrinet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC4D68C-F57C-FA46-BB25-2515E344961A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CFD0EA-20E6-CA4A-83E5-389F5E6C847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -1222,7 +1222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1485,23 +1485,11 @@
     <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1526,6 +1514,15 @@
     </xf>
     <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1552,16 +1549,18 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Technology - Software"/>
-      <sheetName val="Technology - Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financials"/>
       <sheetName val="Healthcare"/>
       <sheetName val="Industrials"/>
-      <sheetName val="Commodity Stocks"/>
-      <sheetName val="Full Portfolio"/>
+      <sheetName val="Commodities"/>
+      <sheetName val="US Treasury Bonds"/>
+      <sheetName val="Growth"/>
       <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Growth"/>
+      <sheetName val="Value"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="US Treasury Bonds"/>
       <sheetName val="Wide Moats"/>
       <sheetName val="Sheet2"/>
       <sheetName val="GARP HF Buys"/>
@@ -1577,21 +1576,23 @@
       <sheetData sheetId="4"/>
       <sheetData sheetId="5"/>
       <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9">
+      <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.8470000000000006E-2</v>
+            <v>4.9880000000000008E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1719,11 +1720,11 @@
     <v>Powered by Refinitiv</v>
     <v>183.74</v>
     <v>90.19</v>
-    <v>1.0382</v>
-    <v>-6.92</v>
-    <v>-3.9635999999999998E-2</v>
-    <v>3.34</v>
-    <v>1.992E-2</v>
+    <v>1.0431999999999999</v>
+    <v>-3.25</v>
+    <v>-1.9819E-2</v>
+    <v>-0.72</v>
+    <v>-4.4800000000000005E-3</v>
     <v>USD</v>
     <v>Fabrinet is a provider of advanced optical packaging and precision optical, electro-mechanical, and electronic manufacturing services to original equipment manufacturers of complex products. The complex products include optical communication components, modules and subsystems, automotive components, medical devices, industrial lasers, and sensors. The Company offers a range of advanced optical and electro-mechanical capabilities across the entire manufacturing process, including process design and engineering, supply chain management, manufacturing, advanced packaging, integration, final assembly, and testing. It focuses on production of high complexity products in any mix and any volume. The Company also designs and fabricates application-specific crystals, lenses, prisms, mirrors, laser components and substrates (customized optics) and other custom and standard borosilicate, clear fused quartz, and synthetic fused silica glass products (customized glass).</v>
     <v>14663</v>
@@ -1731,25 +1732,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>4900 Patrick Henry Drive, SANTA CLARA, CA, 95054 US</v>
-    <v>172.94</v>
+    <v>164.15</v>
     <v>Electronic Equipment &amp; Parts</v>
     <v>Stock</v>
-    <v>45217.993146250003</v>
+    <v>45219.972428876565</v>
     <v>0</v>
-    <v>167.1</v>
-    <v>6068119819</v>
+    <v>158.41999999999999</v>
+    <v>5816955000</v>
     <v>FABRINET</v>
     <v>FABRINET</v>
-    <v>172.08</v>
-    <v>24.924900000000001</v>
-    <v>174.59</v>
-    <v>167.67</v>
-    <v>171.01</v>
+    <v>163.52000000000001</v>
+    <v>24.3764</v>
+    <v>163.98</v>
+    <v>160.72999999999999</v>
+    <v>160.01</v>
     <v>36190850</v>
     <v>FN</v>
     <v>FABRINET (XNYS:FN)</v>
-    <v>450902</v>
-    <v>376459</v>
+    <v>262538</v>
+    <v>391850</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -1914,9 +1915,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2361,8 +2362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="I196" sqref="I196"/>
     </sheetView>
   </sheetViews>
@@ -15676,8 +15677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB89822-0E99-C246-8A1C-93C4AA2C8736}">
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15685,48 +15686,48 @@
     <col min="1" max="16" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="106" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="e" vm="1">
+    <row r="1" spans="1:16" s="105" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="104" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
-      <c r="G1" s="105"/>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="105"/>
-      <c r="P1" s="105"/>
-    </row>
-    <row r="2" spans="1:16" s="106" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="105"/>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
-      <c r="K2" s="105"/>
-      <c r="L2" s="105"/>
-      <c r="M2" s="105"/>
-      <c r="N2" s="105"/>
-      <c r="O2" s="105"/>
-      <c r="P2" s="105"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+    </row>
+    <row r="2" spans="1:16" s="105" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="104"/>
+      <c r="B2" s="104"/>
+      <c r="C2" s="104"/>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="104"/>
+      <c r="G2" s="104"/>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="104"/>
+      <c r="K2" s="104"/>
+      <c r="L2" s="104"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="104"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="104"/>
     </row>
     <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="35" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>6068119819</v>
+        <v>5816955000</v>
       </c>
       <c r="B3" s="36" t="s">
         <v>201</v>
@@ -15754,7 +15755,7 @@
       </c>
       <c r="I3" s="40">
         <f>J14*(1+I7)/(I6-I7)</f>
-        <v>8356187469.1756706</v>
+        <v>8339853961.4237957</v>
       </c>
       <c r="J3" s="36" t="s">
         <v>205</v>
@@ -15762,10 +15763,10 @@
       <c r="K3" s="41"/>
       <c r="L3" s="42"/>
       <c r="M3" s="43"/>
-      <c r="N3" s="110" t="s">
+      <c r="N3" s="106" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="111"/>
+      <c r="O3" s="107"/>
       <c r="P3" s="43"/>
     </row>
     <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -15799,23 +15800,23 @@
       </c>
       <c r="I4" s="50">
         <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>6808484569.0454292</v>
+        <v>6794185665.3269901</v>
       </c>
       <c r="J4" s="49" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="39" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-3.9635999999999998E-2</v>
+        <v>-1.9819E-2</v>
       </c>
       <c r="L4" s="101" t="s">
         <v>249</v>
       </c>
       <c r="M4" s="43"/>
-      <c r="N4" s="112" t="s">
+      <c r="N4" s="108" t="s">
         <v>212</v>
       </c>
-      <c r="O4" s="113"/>
+      <c r="O4" s="109"/>
       <c r="P4" s="43"/>
     </row>
     <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -15849,14 +15850,14 @@
       </c>
       <c r="I5" s="50">
         <f>I4+G5-G6</f>
-        <v>7345529569.0454292</v>
+        <v>7331230665.3269901</v>
       </c>
       <c r="J5" s="49" t="s">
         <v>217</v>
       </c>
       <c r="K5" s="102" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>167.67</v>
+        <v>160.72999999999999</v>
       </c>
       <c r="L5" s="103" t="s">
         <v>218</v>
@@ -15874,7 +15875,7 @@
     <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="54">
         <f>O20/F10</f>
-        <v>2.1329067905096659</v>
+        <v>2.0446239015817222</v>
       </c>
       <c r="B6" s="45" t="s">
         <v>220</v>
@@ -15902,14 +15903,14 @@
       </c>
       <c r="I6" s="56">
         <f>N25</f>
-        <v>8.539955444534672E-2</v>
+        <v>8.5517846275791967E-2</v>
       </c>
       <c r="J6" s="49" t="s">
         <v>223</v>
       </c>
       <c r="K6" s="57">
         <f>I5/G4</f>
-        <v>207.6253393780145</v>
+        <v>207.22117318286564</v>
       </c>
       <c r="L6" s="58" t="s">
         <v>224</v>
@@ -15927,14 +15928,14 @@
     <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="61">
         <f>O20/F12</f>
-        <v>20.431379861952863</v>
+        <v>19.58570707070707</v>
       </c>
       <c r="B7" s="62" t="s">
         <v>226</v>
       </c>
       <c r="C7" s="63">
         <f>F14/O21</f>
-        <v>4.0137841213150886E-2</v>
+        <v>4.1866925266252034E-2</v>
       </c>
       <c r="D7" s="64" t="s">
         <v>227</v>
@@ -15961,7 +15962,7 @@
       </c>
       <c r="K7" s="70">
         <f>K6/K5-1</f>
-        <v>0.23829748540594342</v>
+        <v>0.28925012868080424</v>
       </c>
       <c r="L7" s="71" t="s">
         <v>230</v>
@@ -16219,10 +16220,10 @@
       </c>
       <c r="L13" s="80"/>
       <c r="M13" s="80"/>
-      <c r="N13" s="112" t="s">
+      <c r="N13" s="108" t="s">
         <v>239</v>
       </c>
-      <c r="O13" s="113"/>
+      <c r="O13" s="109"/>
       <c r="P13" s="43"/>
     </row>
     <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
@@ -16266,7 +16267,7 @@
       </c>
       <c r="O14" s="88">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.8470000000000006E-2</v>
+        <v>4.9880000000000008E-2</v>
       </c>
       <c r="P14" s="43"/>
     </row>
@@ -16316,7 +16317,7 @@
       </c>
       <c r="O15" s="92" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.0382</v>
+        <v>1.0431999999999999</v>
       </c>
       <c r="P15" s="43"/>
     </row>
@@ -16371,7 +16372,7 @@
       </c>
       <c r="O17" s="97">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.5357245999999998E-2</v>
+        <v>8.5473984000000003E-2</v>
       </c>
       <c r="P17" s="43"/>
     </row>
@@ -16389,24 +16390,24 @@
       <c r="K18" s="80"/>
       <c r="L18" s="80"/>
       <c r="M18" s="80"/>
-      <c r="N18" s="112" t="s">
+      <c r="N18" s="108" t="s">
         <v>244</v>
       </c>
-      <c r="O18" s="113"/>
+      <c r="O18" s="109"/>
       <c r="P18" s="43"/>
     </row>
     <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="107" t="str" cm="1">
+      <c r="A19" s="114" t="str" cm="1">
         <f t="array" ref="A19">_FV(A1,"Industry")</f>
         <v>Electronic Equipment &amp; Parts</v>
       </c>
-      <c r="B19" s="107"/>
-      <c r="C19" s="108" cm="1">
+      <c r="B19" s="114"/>
+      <c r="C19" s="115" cm="1">
         <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
         <v>1999</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="104"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="116"/>
       <c r="F19" s="80"/>
       <c r="G19" s="80"/>
       <c r="H19" s="80"/>
@@ -16425,14 +16426,14 @@
       <c r="P19" s="43"/>
     </row>
     <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="109" t="str" cm="1">
+      <c r="A20" s="114" t="str" cm="1">
         <f t="array" ref="A20">_FV(A1,"Description")</f>
         <v>Fabrinet is a provider of advanced optical packaging and precision optical, electro-mechanical, and electronic manufacturing services to original equipment manufacturers of complex products. The complex products include optical communication components, modules and subsystems, automotive components, medical devices, industrial lasers, and sensors. The Company offers a range of advanced optical and electro-mechanical capabilities across the entire manufacturing process, including process design and engineering, supply chain management, manufacturing, advanced packaging, integration, final assembly, and testing. It focuses on production of high complexity products in any mix and any volume. The Company also designs and fabricates application-specific crystals, lenses, prisms, mirrors, laser components and substrates (customized optics) and other custom and standard borosilicate, clear fused quartz, and synthetic fused silica glass products (customized glass).</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
+      <c r="B20" s="114"/>
+      <c r="C20" s="114"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
       <c r="F20" s="80"/>
       <c r="G20" s="80"/>
       <c r="H20" s="80"/>
@@ -16446,16 +16447,16 @@
       </c>
       <c r="O20" s="98" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>6068119819</v>
+        <v>5816955000</v>
       </c>
       <c r="P20" s="43"/>
     </row>
     <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="109"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
+      <c r="A21" s="114"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="114"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
       <c r="F21" s="80"/>
       <c r="G21" s="80"/>
       <c r="H21" s="80"/>
@@ -16468,16 +16469,16 @@
       </c>
       <c r="O21" s="98">
         <f>O19+O20</f>
-        <v>6081542819</v>
+        <v>5830378000</v>
       </c>
       <c r="P21" s="43"/>
     </row>
     <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="109"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="114"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
       <c r="F22" s="80"/>
       <c r="G22" s="80"/>
       <c r="H22" s="80"/>
@@ -16491,16 +16492,16 @@
       </c>
       <c r="O22" s="99">
         <f>(O19/O21)</f>
-        <v>2.2071701868255811E-3</v>
+        <v>2.3022521009787014E-3</v>
       </c>
       <c r="P22" s="43"/>
     </row>
     <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="109"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
       <c r="F23" s="80"/>
       <c r="G23" s="80"/>
       <c r="H23" s="80"/>
@@ -16514,16 +16515,16 @@
       </c>
       <c r="O23" s="100">
         <f>O20/O21</f>
-        <v>0.99779282981317441</v>
+        <v>0.99769774789902133</v>
       </c>
       <c r="P23" s="43"/>
     </row>
     <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="109"/>
-      <c r="B24" s="109"/>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="109"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="114"/>
       <c r="F24" s="80"/>
       <c r="G24" s="80"/>
       <c r="H24" s="80"/>
@@ -16532,18 +16533,18 @@
       <c r="K24" s="80"/>
       <c r="L24" s="80"/>
       <c r="M24" s="80"/>
-      <c r="N24" s="114" t="s">
+      <c r="N24" s="110" t="s">
         <v>248</v>
       </c>
-      <c r="O24" s="115"/>
+      <c r="O24" s="111"/>
       <c r="P24" s="43"/>
     </row>
     <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="109"/>
-      <c r="B25" s="109"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
+      <c r="A25" s="114"/>
+      <c r="B25" s="114"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
       <c r="F25" s="80"/>
       <c r="G25" s="80"/>
       <c r="H25" s="80"/>
@@ -16552,19 +16553,19 @@
       <c r="K25" s="80"/>
       <c r="L25" s="80"/>
       <c r="M25" s="80"/>
-      <c r="N25" s="116">
+      <c r="N25" s="112">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.539955444534672E-2</v>
-      </c>
-      <c r="O25" s="117"/>
+        <v>8.5517846275791967E-2</v>
+      </c>
+      <c r="O25" s="113"/>
       <c r="P25" s="43"/>
     </row>
     <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="109"/>
-      <c r="B26" s="109"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="114"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
       <c r="F26" s="80"/>
       <c r="G26" s="80"/>
       <c r="H26" s="80"/>
@@ -16578,11 +16579,11 @@
       <c r="P26" s="43"/>
     </row>
     <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="109"/>
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="109"/>
-      <c r="E27" s="109"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
+      <c r="E27" s="114"/>
       <c r="F27" s="80"/>
       <c r="G27" s="80"/>
       <c r="H27" s="80"/>

--- a/Technology/Hardware/Fabrinet.xlsx
+++ b/Technology/Hardware/Fabrinet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32CFD0EA-20E6-CA4A-83E5-389F5E6C847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70FE309-07BC-214C-99FD-2DD385060CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Financials" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="252">
   <si>
     <t>2011 Y</t>
   </si>
@@ -823,7 +823,13 @@
     <t>WACC</t>
   </si>
   <si>
-    <t>Daily Change %</t>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>Daily Change (%)</t>
   </si>
 </sst>
 </file>
@@ -836,7 +842,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -938,11 +944,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -990,6 +991,17 @@
     <font>
       <b/>
       <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1076,7 +1088,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1121,65 +1133,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
       <top/>
@@ -1188,23 +1143,212 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1214,7 +1358,29 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1222,7 +1388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1284,245 +1450,261 @@
     <xf numFmtId="10" fontId="4" fillId="5" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="14" fillId="11" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="9" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="4" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="9" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="14" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="26" fillId="10" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="18" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="12"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="12" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="9" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="14" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="27" fillId="10" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="13" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="17" fillId="10" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="12" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="21" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="10" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="24" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="23" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="11" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="10" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="11" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="16" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="20" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="19" fillId="11" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="10" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="20" fillId="9" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="20" fillId="9" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="11" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="11" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="10" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="4" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="10" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="9" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1557,12 +1739,11 @@
       <sheetName val="Industrials"/>
       <sheetName val="Commodities"/>
       <sheetName val="US Treasury Bonds"/>
-      <sheetName val="Growth"/>
-      <sheetName val="Full Portfolio (Concentrated)"/>
-      <sheetName val="Value"/>
+      <sheetName val="High Growth"/>
+      <sheetName val="GARP"/>
       <sheetName val="Watchlist"/>
-      <sheetName val="Wide Moats"/>
-      <sheetName val="Sheet2"/>
+      <sheetName val="Small + Speculative"/>
+      <sheetName val="Highest Quality"/>
       <sheetName val="GARP HF Buys"/>
       <sheetName val="Value HF Buys"/>
       <sheetName val="Aggressive Growth HF Buys"/>
@@ -1579,7 +1760,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.9880000000000008E-2</v>
+            <v>4.2709999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1592,7 +1773,6 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1720,11 +1900,11 @@
     <v>Powered by Refinitiv</v>
     <v>183.74</v>
     <v>90.19</v>
-    <v>1.0431999999999999</v>
-    <v>-3.25</v>
-    <v>-1.9819E-2</v>
-    <v>-0.72</v>
-    <v>-4.4800000000000005E-3</v>
+    <v>1.0432999999999999</v>
+    <v>3.04</v>
+    <v>1.8776999999999999E-2</v>
+    <v>0.56000000000000005</v>
+    <v>3.3939999999999999E-3</v>
     <v>USD</v>
     <v>Fabrinet is a provider of advanced optical packaging and precision optical, electro-mechanical, and electronic manufacturing services to original equipment manufacturers of complex products. The complex products include optical communication components, modules and subsystems, automotive components, medical devices, industrial lasers, and sensors. The Company offers a range of advanced optical and electro-mechanical capabilities across the entire manufacturing process, including process design and engineering, supply chain management, manufacturing, advanced packaging, integration, final assembly, and testing. It focuses on production of high complexity products in any mix and any volume. The Company also designs and fabricates application-specific crystals, lenses, prisms, mirrors, laser components and substrates (customized optics) and other custom and standard borosilicate, clear fused quartz, and synthetic fused silica glass products (customized glass).</v>
     <v>14663</v>
@@ -1732,25 +1912,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>4900 Patrick Henry Drive, SANTA CLARA, CA, 95054 US</v>
-    <v>164.15</v>
+    <v>166.74</v>
     <v>Electronic Equipment &amp; Parts</v>
     <v>Stock</v>
-    <v>45219.972428876565</v>
+    <v>45262.039333240624</v>
     <v>0</v>
-    <v>158.41999999999999</v>
-    <v>5816955000</v>
+    <v>161.33000000000001</v>
+    <v>5992412048</v>
     <v>FABRINET</v>
     <v>FABRINET</v>
-    <v>163.52000000000001</v>
-    <v>24.3764</v>
-    <v>163.98</v>
-    <v>160.72999999999999</v>
-    <v>160.01</v>
-    <v>36190850</v>
+    <v>161.33000000000001</v>
+    <v>23.973299999999998</v>
+    <v>161.9</v>
+    <v>164.94</v>
+    <v>165.56</v>
+    <v>36330860</v>
     <v>FN</v>
     <v>FABRINET (XNYS:FN)</v>
-    <v>262538</v>
-    <v>391850</v>
+    <v>248506</v>
+    <v>337336</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -1915,9 +2095,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -2362,9 +2542,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:XEY196"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A156" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I196" sqref="I196"/>
+      <selection pane="topRight" activeCell="O173" sqref="O173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12584,8 +12764,8 @@
       <c r="N172" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O172" s="5" t="s">
-        <v>24</v>
+      <c r="O172" s="5">
+        <v>0</v>
       </c>
       <c r="P172" s="4" t="s">
         <v>24</v>
@@ -15668,385 +15848,404 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B1:S1 A2:S2 A4:S7 A15:S16 A19:S33 A191:S195 A9:S11 A13 A37:S128 A130:S142 A144:S188" numberStoredAsText="1"/>
+    <ignoredError sqref="B1:S1 A2:S2 A4:S7 A15:S16 A19:S33 A191:S195 A9:S11 A13 A37:S128 A130:S142 A144:S171 A173:S188 A172:N172 P172:S172" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB89822-0E99-C246-8A1C-93C4AA2C8736}">
-  <dimension ref="A1:P110"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16" width="18.83203125" customWidth="1"/>
+    <col min="1" max="18" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="105" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="104" t="e" vm="1">
+    <row r="1" spans="1:18" s="114" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="113" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="104"/>
-      <c r="E1" s="104"/>
-      <c r="F1" s="104"/>
-      <c r="G1" s="104"/>
-      <c r="H1" s="104"/>
-      <c r="I1" s="104"/>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-    </row>
-    <row r="2" spans="1:16" s="105" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="104"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="104"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="104"/>
-    </row>
-    <row r="3" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="35" cm="1">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+    </row>
+    <row r="2" spans="1:18" s="114" customFormat="1" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="113"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+    </row>
+    <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="44" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>5816955000</v>
-      </c>
-      <c r="B3" s="36" t="s">
+        <v>5992412048</v>
+      </c>
+      <c r="B3" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="46">
         <f>Financials!O8*0.01</f>
         <v>0.12710000000000002</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="46">
         <f>SUM(C11:E11)/3</f>
-        <v>0.17256621500296268</v>
-      </c>
-      <c r="F3" s="38" t="s">
+        <v>0.17252810602209534</v>
+      </c>
+      <c r="F3" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="48">
         <f>SUM(Financials!K129:N129)/4</f>
         <v>-4.4877524340637409E-3</v>
       </c>
-      <c r="H3" s="38" t="s">
+      <c r="H3" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="I3" s="40">
-        <f>J14*(1+I7)/(I6-I7)</f>
-        <v>8339853961.4237957</v>
-      </c>
-      <c r="J3" s="36" t="s">
+      <c r="I3" s="49">
+        <f>J15*(1+I7)/(I6-I7)</f>
+        <v>7077130787.6355562</v>
+      </c>
+      <c r="J3" s="50" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="41"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="106" t="s">
+      <c r="K3" s="51">
+        <f>(Financials!O172*-1)/Model!A3</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="52" t="s">
+        <v>250</v>
+      </c>
+      <c r="M3" s="35"/>
+      <c r="N3" s="115" t="s">
         <v>206</v>
       </c>
-      <c r="O3" s="107"/>
-      <c r="P3" s="43"/>
-    </row>
-    <row r="4" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="44">
+      <c r="O3" s="116"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+    </row>
+    <row r="4" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="53">
         <f>Financials!O56-Financials!O96-Financials!O105</f>
         <v>537045000</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4" s="37">
         <f>Financials!O17*0.01</f>
         <v>9.7799999999999998E-2</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="37">
         <f>SUM(C13:E13)/3</f>
-        <v>0.29841063539895146</v>
-      </c>
-      <c r="F4" s="47" t="s">
+        <v>0.29829370302020081</v>
+      </c>
+      <c r="F4" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="56">
         <f>A5*(1+(5*G3))</f>
-        <v>35378772.124108322</v>
-      </c>
-      <c r="H4" s="49" t="s">
+        <v>35515640.473016858</v>
+      </c>
+      <c r="H4" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="I4" s="50">
-        <f>NPV(I6,F14,G14,H14,I14,(J14+I3))</f>
-        <v>6794185665.3269901</v>
-      </c>
-      <c r="J4" s="49" t="s">
+      <c r="I4" s="36">
+        <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
+        <v>5881940744.2785673</v>
+      </c>
+      <c r="J4" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="K4" s="39" cm="1">
+      <c r="K4" s="57" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>-1.9819E-2</v>
-      </c>
-      <c r="L4" s="101" t="s">
-        <v>249</v>
-      </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="108" t="s">
+        <v>1.8776999999999999E-2</v>
+      </c>
+      <c r="L4" s="58" t="s">
+        <v>251</v>
+      </c>
+      <c r="M4" s="35"/>
+      <c r="N4" s="117" t="s">
         <v>212</v>
       </c>
-      <c r="O4" s="109"/>
-      <c r="P4" s="43"/>
-    </row>
-    <row r="5" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="48" cm="1">
+      <c r="O4" s="118"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+    </row>
+    <row r="5" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="53" cm="1">
         <f t="array" ref="A5">_FV(A1,"Shares outstanding",TRUE)</f>
-        <v>36190850</v>
-      </c>
-      <c r="B5" s="45" t="s">
+        <v>36330860</v>
+      </c>
+      <c r="B5" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="37">
         <f>Financials!O34*0.01</f>
         <v>9.3699999999999992E-2</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="59" t="s">
         <v>214</v>
       </c>
-      <c r="E5" s="46">
-        <f>SUM(C15:E15)/3</f>
-        <v>0.86987844522470625</v>
-      </c>
-      <c r="F5" s="47" t="s">
+      <c r="E5" s="37">
+        <f>SUM(C16:E16)/3</f>
+        <v>6.5957673505819292</v>
+      </c>
+      <c r="F5" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="56">
         <f>Financials!O56</f>
         <v>550468000</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="I5" s="50">
+      <c r="I5" s="36">
         <f>I4+G5-G6</f>
-        <v>7331230665.3269901</v>
-      </c>
-      <c r="J5" s="49" t="s">
+        <v>6418985744.2785673</v>
+      </c>
+      <c r="J5" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="K5" s="102" cm="1">
+      <c r="K5" s="60" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>160.72999999999999</v>
-      </c>
-      <c r="L5" s="103" t="s">
+        <v>164.94</v>
+      </c>
+      <c r="L5" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="M5" s="43"/>
-      <c r="N5" s="52" t="s">
+      <c r="M5" s="35"/>
+      <c r="N5" s="97" t="s">
         <v>219</v>
       </c>
-      <c r="O5" s="53">
+      <c r="O5" s="98">
         <f>Financials!O21</f>
         <v>1472000</v>
       </c>
-      <c r="P5" s="43"/>
-    </row>
-    <row r="6" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="54">
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+    </row>
+    <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="62">
         <f>O20/F10</f>
-        <v>2.0446239015817222</v>
-      </c>
-      <c r="B6" s="45" t="s">
+        <v>2.1011262440392708</v>
+      </c>
+      <c r="B6" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="37">
         <f>Financials!O190</f>
         <v>5.7628882024559618E-2</v>
       </c>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="59" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="37">
         <f>Financials!O33/Financials!O126</f>
         <v>0.16880240328245241</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="56">
         <f>Financials!O96+Financials!O105</f>
         <v>13423000</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="55" t="s">
         <v>222</v>
       </c>
-      <c r="I6" s="56">
+      <c r="I6" s="57">
         <f>N25</f>
-        <v>8.5517846275791967E-2</v>
-      </c>
-      <c r="J6" s="49" t="s">
+        <v>8.5829736360408346E-2</v>
+      </c>
+      <c r="J6" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="K6" s="57">
+      <c r="K6" s="38">
         <f>I5/G4</f>
-        <v>207.22117318286564</v>
-      </c>
-      <c r="L6" s="58" t="s">
+        <v>180.73687138362087</v>
+      </c>
+      <c r="L6" s="63" t="s">
         <v>224</v>
       </c>
-      <c r="M6" s="43"/>
-      <c r="N6" s="59" t="s">
+      <c r="M6" s="35"/>
+      <c r="N6" s="97" t="s">
         <v>225</v>
       </c>
-      <c r="O6" s="60">
+      <c r="O6" s="98">
         <f>Financials!O96</f>
         <v>13357000</v>
       </c>
-      <c r="P6" s="43"/>
-    </row>
-    <row r="7" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61">
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+    </row>
+    <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="64">
         <f>O20/F12</f>
-        <v>19.58570707070707</v>
-      </c>
-      <c r="B7" s="62" t="s">
+        <v>19.647252616393441</v>
+      </c>
+      <c r="B7" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="C7" s="63">
-        <f>F14/O21</f>
-        <v>4.1866925266252034E-2</v>
-      </c>
-      <c r="D7" s="64" t="s">
+      <c r="C7" s="66">
+        <f>F15/O21</f>
+        <v>4.0460651692543786E-2</v>
+      </c>
+      <c r="D7" s="65" t="s">
         <v>227</v>
       </c>
-      <c r="E7" s="65">
+      <c r="E7" s="67">
         <f>(Financials!O16*(1-0.25))/(Financials!O126+Financials!O105+Financials!O96)</f>
         <v>0.13086329289694693</v>
       </c>
-      <c r="F7" s="62" t="s">
+      <c r="F7" s="65" t="s">
         <v>196</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="68">
         <f>(Financials!O96+Financials!O105)/Financials!O126</f>
         <v>9.1396363210495563E-3</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="I7" s="68">
+      <c r="I7" s="70">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="J7" s="69" t="s">
+      <c r="J7" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="K7" s="70">
+      <c r="K7" s="72">
         <f>K6/K5-1</f>
-        <v>0.28925012868080424</v>
-      </c>
-      <c r="L7" s="71" t="s">
+        <v>9.5773441152060546E-2</v>
+      </c>
+      <c r="L7" s="73" t="s">
         <v>230</v>
       </c>
-      <c r="M7" s="43"/>
-      <c r="N7" s="59" t="s">
+      <c r="M7" s="35"/>
+      <c r="N7" s="97" t="s">
         <v>231</v>
       </c>
-      <c r="O7" s="60">
+      <c r="O7" s="98">
         <f>Financials!O105</f>
         <v>66000</v>
       </c>
-      <c r="P7" s="43"/>
-    </row>
-    <row r="8" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="72"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="43"/>
-      <c r="N8" s="73" t="s">
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+    </row>
+    <row r="8" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="74"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="99" t="s">
         <v>212</v>
       </c>
-      <c r="O8" s="74">
+      <c r="O8" s="100">
         <f>O5/(O6+O7)</f>
         <v>0.10966251955598599</v>
       </c>
-      <c r="P8" s="43"/>
-    </row>
-    <row r="9" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+    </row>
+    <row r="9" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="75"/>
       <c r="B9" s="76">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C9" s="76">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="D9" s="76">
-        <v>2021</v>
-      </c>
-      <c r="E9" s="76">
         <v>2022</v>
       </c>
-      <c r="F9" s="77">
+      <c r="E9" s="77">
         <v>2023</v>
       </c>
-      <c r="G9" s="78">
+      <c r="F9" s="78">
         <v>2024</v>
       </c>
-      <c r="H9" s="78">
+      <c r="G9" s="79">
         <v>2025</v>
       </c>
-      <c r="I9" s="78">
+      <c r="H9" s="79">
         <v>2026</v>
       </c>
-      <c r="J9" s="78">
+      <c r="I9" s="79">
         <v>2027</v>
       </c>
-      <c r="K9" s="79"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="59" t="s">
+      <c r="J9" s="80">
+        <v>2028</v>
+      </c>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+      <c r="N9" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="O9" s="60">
+      <c r="O9" s="98">
         <f>Financials!O25</f>
         <v>12183000</v>
       </c>
-      <c r="P9" s="43"/>
-    </row>
-    <row r="10" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+    </row>
+    <row r="10" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="81" t="s">
         <v>233</v>
       </c>
       <c r="B10" s="82">
-        <v>1641836000</v>
+        <v>1642000000</v>
       </c>
       <c r="C10" s="82">
         <v>1879350000</v>
@@ -16054,42 +16253,45 @@
       <c r="D10" s="82">
         <v>2262224000</v>
       </c>
-      <c r="E10" s="82">
+      <c r="E10" s="83">
         <v>2645237000</v>
       </c>
-      <c r="F10" s="83">
-        <v>2845000000</v>
+      <c r="F10" s="82">
+        <v>2852000000</v>
       </c>
       <c r="G10" s="82">
-        <v>3176000000</v>
+        <v>3293000000</v>
       </c>
       <c r="H10" s="82">
-        <v>3617000000</v>
+        <v>3653000000</v>
       </c>
       <c r="I10" s="82">
-        <v>3888000000</v>
-      </c>
-      <c r="J10" s="82">
-        <v>4024000000</v>
+        <v>3927000000</v>
+      </c>
+      <c r="J10" s="83">
+        <v>4065000000</v>
       </c>
       <c r="K10" s="84" t="s">
         <v>234</v>
       </c>
-      <c r="N10" s="59" t="s">
+      <c r="L10" s="39"/>
+      <c r="N10" s="97" t="s">
         <v>235</v>
       </c>
-      <c r="O10" s="60">
+      <c r="O10" s="98">
         <f>Financials!O24</f>
         <v>260096000</v>
       </c>
-      <c r="P10" s="43"/>
-    </row>
-    <row r="11" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+    </row>
+    <row r="11" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="85"/>
       <c r="B11" s="86"/>
       <c r="C11" s="86">
         <f t="shared" ref="C11:J11" si="0">(C10/B10)-1</f>
-        <v>0.14466365702786388</v>
+        <v>0.14454933008526183</v>
       </c>
       <c r="D11" s="86">
         <f t="shared" si="0"/>
@@ -16101,1321 +16303,1481 @@
       </c>
       <c r="F11" s="87">
         <f t="shared" si="0"/>
-        <v>7.5517997064157294E-2</v>
+        <v>7.8164262786283523E-2</v>
       </c>
       <c r="G11" s="86">
         <f t="shared" si="0"/>
-        <v>0.11634446397188047</v>
+        <v>0.15462833099579232</v>
       </c>
       <c r="H11" s="86">
         <f t="shared" si="0"/>
-        <v>0.13885390428211597</v>
+        <v>0.10932280595201949</v>
       </c>
       <c r="I11" s="86">
         <f t="shared" si="0"/>
-        <v>7.492397014100094E-2</v>
-      </c>
-      <c r="J11" s="86">
+        <v>7.5006843690117675E-2</v>
+      </c>
+      <c r="J11" s="88">
         <f t="shared" si="0"/>
-        <v>3.4979423868312765E-2</v>
-      </c>
-      <c r="K11" s="87">
+        <v>3.5141329258976395E-2</v>
+      </c>
+      <c r="K11" s="88">
         <f>SUM(F11:J11)/5</f>
-        <v>8.8123951865493488E-2</v>
-      </c>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="59" t="s">
+        <v>9.0452714536637877E-2</v>
+      </c>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="O11" s="88">
+      <c r="O11" s="101">
         <f>O9/O10</f>
         <v>4.6840397391732284E-2</v>
       </c>
-      <c r="P11" s="43"/>
-    </row>
-    <row r="12" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+    </row>
+    <row r="12" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="81" t="s">
         <v>142</v>
       </c>
       <c r="B12" s="82">
-        <v>113479000</v>
+        <v>113500000</v>
       </c>
       <c r="C12" s="82">
-        <v>148341000</v>
+        <v>148000000</v>
       </c>
       <c r="D12" s="82">
-        <v>200380000</v>
+        <v>200000000</v>
       </c>
       <c r="E12" s="82">
         <v>247913000</v>
       </c>
-      <c r="F12" s="83">
-        <v>297000000</v>
+      <c r="F12" s="89">
+        <v>305000000</v>
       </c>
       <c r="G12" s="82">
-        <v>332400000</v>
+        <v>349000000</v>
       </c>
       <c r="H12" s="82">
-        <v>382300000</v>
+        <v>400000000</v>
       </c>
       <c r="I12" s="82">
-        <v>449300000</v>
-      </c>
-      <c r="J12" s="82">
-        <v>465000000</v>
-      </c>
-      <c r="K12" s="84" t="s">
+        <v>469000000</v>
+      </c>
+      <c r="J12" s="83">
+        <v>485000000</v>
+      </c>
+      <c r="K12" s="90" t="s">
         <v>237</v>
       </c>
-      <c r="L12" s="80"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="89" t="s">
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="97" t="s">
         <v>238</v>
       </c>
-      <c r="O12" s="90">
+      <c r="O12" s="101">
         <f>O8*(1-O11)</f>
         <v>0.10452588356100499</v>
       </c>
-      <c r="P12" s="43"/>
-    </row>
-    <row r="13" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+    </row>
+    <row r="13" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="85"/>
       <c r="B13" s="86"/>
       <c r="C13" s="86">
         <f t="shared" ref="C13:J13" si="1">(C12/B12)-1</f>
-        <v>0.30721102582856741</v>
+        <v>0.30396475770925102</v>
       </c>
       <c r="D13" s="86">
         <f t="shared" si="1"/>
-        <v>0.35080658752468974</v>
+        <v>0.35135135135135132</v>
       </c>
       <c r="E13" s="86">
         <f t="shared" si="1"/>
-        <v>0.23721429284359719</v>
+        <v>0.23956500000000003</v>
       </c>
       <c r="F13" s="87">
         <f t="shared" si="1"/>
-        <v>0.19800091161012134</v>
+        <v>0.23027029643463637</v>
       </c>
       <c r="G13" s="86">
         <f t="shared" si="1"/>
-        <v>0.11919191919191929</v>
+        <v>0.1442622950819672</v>
       </c>
       <c r="H13" s="86">
         <f t="shared" si="1"/>
-        <v>0.15012033694344162</v>
+        <v>0.14613180515759305</v>
       </c>
       <c r="I13" s="86">
         <f t="shared" si="1"/>
-        <v>0.17525503531258169</v>
-      </c>
-      <c r="J13" s="86">
+        <v>0.1725000000000001</v>
+      </c>
+      <c r="J13" s="88">
         <f t="shared" si="1"/>
-        <v>3.4943245047852178E-2</v>
-      </c>
-      <c r="K13" s="87">
+        <v>3.4115138592750505E-2</v>
+      </c>
+      <c r="K13" s="88">
         <f>SUM(F13:J13)/5</f>
-        <v>0.13550228962118321</v>
-      </c>
-      <c r="L13" s="80"/>
-      <c r="M13" s="80"/>
-      <c r="N13" s="108" t="s">
+        <v>0.14545590705338945</v>
+      </c>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="117" t="s">
         <v>239</v>
       </c>
-      <c r="O13" s="109"/>
-      <c r="P13" s="43"/>
-    </row>
-    <row r="14" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="81" t="s">
+      <c r="O13" s="118"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+    </row>
+    <row r="14" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="41">
+        <f>B12/B10</f>
+        <v>6.912302070645554E-2</v>
+      </c>
+      <c r="C14" s="41">
+        <f t="shared" ref="C14:J14" si="2">C12/C10</f>
+        <v>7.8750631867400958E-2</v>
+      </c>
+      <c r="D14" s="41">
+        <f t="shared" si="2"/>
+        <v>8.8408574924499078E-2</v>
+      </c>
+      <c r="E14" s="41">
+        <f t="shared" si="2"/>
+        <v>9.3720524852782566E-2</v>
+      </c>
+      <c r="F14" s="42">
+        <f t="shared" si="2"/>
+        <v>0.10694249649368864</v>
+      </c>
+      <c r="G14" s="41">
+        <f t="shared" si="2"/>
+        <v>0.10598238688126328</v>
+      </c>
+      <c r="H14" s="41">
+        <f t="shared" si="2"/>
+        <v>0.10949904188338352</v>
+      </c>
+      <c r="I14" s="41">
+        <f t="shared" si="2"/>
+        <v>0.11942959001782531</v>
+      </c>
+      <c r="J14" s="43">
+        <f t="shared" si="2"/>
+        <v>0.11931119311193111</v>
+      </c>
+      <c r="K14" s="43"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="97" t="s">
+        <v>241</v>
+      </c>
+      <c r="O14" s="101">
+        <f>'[1]US Treasury Bonds'!$C$8</f>
+        <v>4.2709999999999998E-2</v>
+      </c>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+    </row>
+    <row r="15" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="82">
-        <v>110049883</v>
-      </c>
-      <c r="C14" s="82">
-        <v>75265335</v>
-      </c>
-      <c r="D14" s="82">
-        <v>34081253</v>
-      </c>
-      <c r="E14" s="82">
-        <v>152442051</v>
-      </c>
-      <c r="F14" s="83">
-        <v>244100000</v>
-      </c>
-      <c r="G14" s="82">
-        <v>259200000</v>
-      </c>
-      <c r="H14" s="82">
-        <v>274400000</v>
-      </c>
-      <c r="I14" s="82">
-        <v>381800000</v>
-      </c>
-      <c r="J14" s="82">
-        <v>492400000</v>
-      </c>
-      <c r="K14" s="84" t="s">
+      <c r="B15" s="82">
+        <v>62450000</v>
+      </c>
+      <c r="C15" s="82">
+        <v>93000000</v>
+      </c>
+      <c r="D15" s="82">
+        <v>6170000</v>
+      </c>
+      <c r="E15" s="82">
+        <v>131000000</v>
+      </c>
+      <c r="F15" s="89">
+        <v>243000000</v>
+      </c>
+      <c r="G15" s="82">
+        <v>237000000</v>
+      </c>
+      <c r="H15" s="82">
+        <v>285000000</v>
+      </c>
+      <c r="I15" s="82">
+        <v>372000000</v>
+      </c>
+      <c r="J15" s="83">
+        <v>420000000</v>
+      </c>
+      <c r="K15" s="90" t="s">
         <v>240</v>
       </c>
-      <c r="L14" s="80"/>
-      <c r="M14" s="80"/>
-      <c r="N14" s="59" t="s">
-        <v>241</v>
-      </c>
-      <c r="O14" s="88">
-        <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.9880000000000008E-2</v>
-      </c>
-      <c r="P14" s="43"/>
-    </row>
-    <row r="15" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="91"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="86">
-        <f t="shared" ref="C15:J15" si="2">(C14/B14)-1</f>
-        <v>-0.31607982718164274</v>
-      </c>
-      <c r="D15" s="86">
-        <f t="shared" si="2"/>
-        <v>-0.5471852613158501</v>
-      </c>
-      <c r="E15" s="86">
-        <f t="shared" si="2"/>
-        <v>3.4729004241716117</v>
-      </c>
-      <c r="F15" s="87">
-        <f t="shared" si="2"/>
-        <v>0.60126420760371424</v>
-      </c>
-      <c r="G15" s="86">
-        <f t="shared" si="2"/>
-        <v>6.1859893486276185E-2</v>
-      </c>
-      <c r="H15" s="86">
-        <f t="shared" si="2"/>
-        <v>5.8641975308642014E-2</v>
-      </c>
-      <c r="I15" s="86">
-        <f t="shared" si="2"/>
-        <v>0.3913994169096211</v>
-      </c>
-      <c r="J15" s="86">
-        <f t="shared" si="2"/>
-        <v>0.2896804609743322</v>
-      </c>
-      <c r="K15" s="87">
-        <f>SUM(F15:J15)/5</f>
-        <v>0.28056919085651716</v>
-      </c>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="59" t="s">
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="97" t="s">
         <v>242</v>
       </c>
-      <c r="O15" s="92" cm="1">
+      <c r="O15" s="102" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.0431999999999999</v>
-      </c>
-      <c r="P15" s="43"/>
-    </row>
-    <row r="16" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="81" t="s">
+        <v>1.0432999999999999</v>
+      </c>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+    </row>
+    <row r="16" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="91"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86">
+        <f t="shared" ref="C16:J16" si="3">(C15/B15)-1</f>
+        <v>0.48919135308246586</v>
+      </c>
+      <c r="D16" s="86">
+        <f t="shared" si="3"/>
+        <v>-0.93365591397849457</v>
+      </c>
+      <c r="E16" s="86">
+        <f t="shared" si="3"/>
+        <v>20.231766612641817</v>
+      </c>
+      <c r="F16" s="87">
+        <f t="shared" si="3"/>
+        <v>0.85496183206106879</v>
+      </c>
+      <c r="G16" s="86">
+        <f t="shared" si="3"/>
+        <v>-2.4691358024691357E-2</v>
+      </c>
+      <c r="H16" s="86">
+        <f t="shared" si="3"/>
+        <v>0.20253164556962022</v>
+      </c>
+      <c r="I16" s="86">
+        <f t="shared" si="3"/>
+        <v>0.3052631578947369</v>
+      </c>
+      <c r="J16" s="88">
+        <f t="shared" si="3"/>
+        <v>0.12903225806451624</v>
+      </c>
+      <c r="K16" s="88">
+        <f>SUM(F16:J16)/5</f>
+        <v>0.2934195071130502</v>
+      </c>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="97" t="s">
+        <v>243</v>
+      </c>
+      <c r="O16" s="101">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+    </row>
+    <row r="17" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="41">
+        <f>B15/B10</f>
+        <v>3.8032886723507915E-2</v>
+      </c>
+      <c r="C17" s="41">
+        <f t="shared" ref="C17:J17" si="4">C15/C10</f>
+        <v>4.9485194349110063E-2</v>
+      </c>
+      <c r="D17" s="41">
+        <f t="shared" si="4"/>
+        <v>2.7274045364207964E-3</v>
+      </c>
+      <c r="E17" s="43">
+        <f t="shared" si="4"/>
+        <v>4.9522972799790718E-2</v>
+      </c>
+      <c r="F17" s="41">
+        <f t="shared" si="4"/>
+        <v>8.5203366058906035E-2</v>
+      </c>
+      <c r="G17" s="41">
+        <f t="shared" si="4"/>
+        <v>7.1970847251746128E-2</v>
+      </c>
+      <c r="H17" s="41">
+        <f t="shared" si="4"/>
+        <v>7.801806734191076E-2</v>
+      </c>
+      <c r="I17" s="41">
+        <f t="shared" si="4"/>
+        <v>9.4728800611153546E-2</v>
+      </c>
+      <c r="J17" s="43">
+        <f t="shared" si="4"/>
+        <v>0.10332103321033211</v>
+      </c>
+      <c r="K17" s="43"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="103" t="s">
+        <v>239</v>
+      </c>
+      <c r="O17" s="104">
+        <f>(O14)+((O15)*(O16-O14))</f>
+        <v>8.5787856999999995E-2</v>
+      </c>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+    </row>
+    <row r="18" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="92" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="93">
-        <v>8.5400524793240548E-2</v>
-      </c>
-      <c r="C16" s="93">
+      <c r="B18" s="93">
         <v>9.7625589459264195E-2</v>
       </c>
-      <c r="D16" s="93">
+      <c r="C18" s="93">
         <v>0.11945471313389161</v>
       </c>
-      <c r="E16" s="93">
+      <c r="D18" s="93">
         <v>0.13086329289694693</v>
       </c>
-      <c r="F16" s="94"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="59" t="s">
-        <v>243</v>
-      </c>
-      <c r="O16" s="88">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="P16" s="43"/>
-    </row>
-    <row r="17" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="80"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="96" t="s">
-        <v>239</v>
-      </c>
-      <c r="O17" s="97">
-        <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.5473984000000003E-2</v>
-      </c>
-      <c r="P17" s="43"/>
-    </row>
-    <row r="18" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="108" t="s">
+      <c r="E18" s="93">
+        <v>0.13086329289694693</v>
+      </c>
+      <c r="F18" s="94"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="95"/>
+      <c r="K18" s="96"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="117" t="s">
         <v>244</v>
       </c>
-      <c r="O18" s="109"/>
-      <c r="P18" s="43"/>
-    </row>
-    <row r="19" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="114" t="str" cm="1">
-        <f t="array" ref="A19">_FV(A1,"Industry")</f>
-        <v>Electronic Equipment &amp; Parts</v>
-      </c>
-      <c r="B19" s="114"/>
-      <c r="C19" s="115" cm="1">
-        <f t="array" ref="C19">_FV(A1,"Year incorporated",TRUE)</f>
-        <v>1999</v>
-      </c>
-      <c r="D19" s="115"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="59" t="s">
+      <c r="O18" s="118"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+    </row>
+    <row r="19" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="39"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="97" t="s">
         <v>222</v>
       </c>
-      <c r="O19" s="98">
+      <c r="O19" s="105">
         <f>O6+O7</f>
         <v>13423000</v>
       </c>
-      <c r="P19" s="43"/>
-    </row>
-    <row r="20" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="114" t="str" cm="1">
-        <f t="array" ref="A20">_FV(A1,"Description")</f>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+    </row>
+    <row r="20" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="97" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" s="105" cm="1">
+        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
+        <v>5992412048</v>
+      </c>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+    </row>
+    <row r="21" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="119" t="str" cm="1">
+        <f t="array" ref="A21">_FV(A1,"Industry")</f>
+        <v>Electronic Equipment &amp; Parts</v>
+      </c>
+      <c r="B21" s="119"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="120" cm="1">
+        <f t="array" ref="D21">_FV(A1,"Year incorporated",TRUE)</f>
+        <v>1999</v>
+      </c>
+      <c r="E21" s="120"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="97" t="s">
+        <v>245</v>
+      </c>
+      <c r="O21" s="105">
+        <f>O19+O20</f>
+        <v>6005835048</v>
+      </c>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+    </row>
+    <row r="22" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="112" t="str" cm="1">
+        <f t="array" ref="A22">_FV(A1,"Description")</f>
         <v>Fabrinet is a provider of advanced optical packaging and precision optical, electro-mechanical, and electronic manufacturing services to original equipment manufacturers of complex products. The complex products include optical communication components, modules and subsystems, automotive components, medical devices, industrial lasers, and sensors. The Company offers a range of advanced optical and electro-mechanical capabilities across the entire manufacturing process, including process design and engineering, supply chain management, manufacturing, advanced packaging, integration, final assembly, and testing. It focuses on production of high complexity products in any mix and any volume. The Company also designs and fabricates application-specific crystals, lenses, prisms, mirrors, laser components and substrates (customized optics) and other custom and standard borosilicate, clear fused quartz, and synthetic fused silica glass products (customized glass).</v>
       </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="59" t="s">
-        <v>201</v>
-      </c>
-      <c r="O20" s="98" cm="1">
-        <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>5816955000</v>
-      </c>
-      <c r="P20" s="43"/>
-    </row>
-    <row r="21" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="114"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="114"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="O21" s="98">
-        <f>O19+O20</f>
-        <v>5830378000</v>
-      </c>
-      <c r="P21" s="43"/>
-    </row>
-    <row r="22" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="114"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="73" t="s">
+      <c r="B22" s="112"/>
+      <c r="C22" s="112"/>
+      <c r="D22" s="112"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="99" t="s">
         <v>246</v>
       </c>
-      <c r="O22" s="99">
+      <c r="O22" s="106">
         <f>(O19/O21)</f>
-        <v>2.3022521009787014E-3</v>
-      </c>
-      <c r="P22" s="43"/>
-    </row>
-    <row r="23" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="114"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="114"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80"/>
-      <c r="N23" s="96" t="s">
+        <v>2.2349931179794866E-3</v>
+      </c>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+    </row>
+    <row r="23" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="112"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="112"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="103" t="s">
         <v>247</v>
       </c>
-      <c r="O23" s="100">
+      <c r="O23" s="107">
         <f>O20/O21</f>
-        <v>0.99769774789902133</v>
-      </c>
-      <c r="P23" s="43"/>
-    </row>
-    <row r="24" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="114"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="80"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="80"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="80"/>
-      <c r="N24" s="110" t="s">
+        <v>0.99776500688202052</v>
+      </c>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+    </row>
+    <row r="24" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="112"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="108" t="s">
         <v>248</v>
       </c>
-      <c r="O24" s="111"/>
-      <c r="P24" s="43"/>
-    </row>
-    <row r="25" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="114"/>
-      <c r="B25" s="114"/>
-      <c r="C25" s="114"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="112">
+      <c r="O24" s="109"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+    </row>
+    <row r="25" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="112"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="110">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.5517846275791967E-2</v>
-      </c>
-      <c r="O25" s="113"/>
-      <c r="P25" s="43"/>
-    </row>
-    <row r="26" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="114"/>
-      <c r="B26" s="114"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="80"/>
-      <c r="N26" s="80"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-    </row>
-    <row r="27" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="114"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="80"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="43"/>
-    </row>
-    <row r="28" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="80"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="43"/>
-    </row>
-    <row r="29" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="80"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="43"/>
-    </row>
-    <row r="30" spans="1:16" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="80"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
-      <c r="N30" s="80"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
-      <c r="I31" s="43"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="43"/>
-      <c r="L31" s="43"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="43"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="80"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
-      <c r="N33" s="80"/>
-      <c r="O33" s="80"/>
-      <c r="P33" s="80"/>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="80"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="80"/>
-      <c r="O34" s="80"/>
-      <c r="P34" s="80"/>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="80"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="80"/>
-      <c r="N35" s="80"/>
-      <c r="O35" s="80"/>
-      <c r="P35" s="80"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="80"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="80"/>
-      <c r="M36" s="80"/>
-      <c r="N36" s="80"/>
-      <c r="O36" s="80"/>
-      <c r="P36" s="80"/>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="80"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="80"/>
-      <c r="P37" s="80"/>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="80"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="80"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="80"/>
-      <c r="P38" s="80"/>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="80"/>
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="80"/>
-      <c r="L39" s="80"/>
-      <c r="M39" s="80"/>
-      <c r="N39" s="80"/>
-      <c r="O39" s="80"/>
-      <c r="P39" s="80"/>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="80"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
-      <c r="N40" s="80"/>
-      <c r="O40" s="80"/>
-      <c r="P40" s="80"/>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="80"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
-      <c r="M41" s="80"/>
-      <c r="N41" s="80"/>
-      <c r="O41" s="80"/>
-      <c r="P41" s="80"/>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="80"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="80"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="80"/>
-      <c r="N42" s="80"/>
-      <c r="O42" s="80"/>
-      <c r="P42" s="80"/>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="80"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="80"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="80"/>
-      <c r="L43" s="80"/>
-      <c r="M43" s="80"/>
-      <c r="N43" s="80"/>
-      <c r="O43" s="80"/>
-      <c r="P43" s="80"/>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="80"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="80"/>
-      <c r="K44" s="80"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="80"/>
-      <c r="N44" s="80"/>
-      <c r="O44" s="80"/>
-      <c r="P44" s="80"/>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="80"/>
-      <c r="B45" s="80"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="80"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="80"/>
-      <c r="N45" s="80"/>
-      <c r="O45" s="80"/>
-      <c r="P45" s="80"/>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="80"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="80"/>
-      <c r="J46" s="80"/>
-      <c r="K46" s="80"/>
-      <c r="L46" s="80"/>
-      <c r="M46" s="80"/>
-      <c r="N46" s="80"/>
-      <c r="O46" s="80"/>
-      <c r="P46" s="80"/>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="80"/>
-      <c r="B47" s="80"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="80"/>
-      <c r="L47" s="80"/>
-      <c r="M47" s="80"/>
-      <c r="N47" s="80"/>
-      <c r="O47" s="80"/>
-      <c r="P47" s="80"/>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="80"/>
-      <c r="B48" s="80"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="80"/>
-      <c r="M48" s="80"/>
-      <c r="N48" s="80"/>
-      <c r="O48" s="80"/>
-      <c r="P48" s="80"/>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="80"/>
-      <c r="B49" s="80"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
-      <c r="G49" s="80"/>
-      <c r="H49" s="80"/>
-      <c r="I49" s="80"/>
-      <c r="J49" s="80"/>
-      <c r="K49" s="80"/>
-      <c r="L49" s="80"/>
-      <c r="M49" s="80"/>
-      <c r="N49" s="80"/>
-      <c r="O49" s="80"/>
-      <c r="P49" s="80"/>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A50" s="80"/>
-      <c r="B50" s="80"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
-      <c r="G50" s="80"/>
-      <c r="H50" s="80"/>
-      <c r="I50" s="80"/>
-      <c r="J50" s="80"/>
-      <c r="K50" s="80"/>
-      <c r="L50" s="80"/>
-      <c r="M50" s="80"/>
-      <c r="N50" s="80"/>
-      <c r="O50" s="80"/>
-      <c r="P50" s="80"/>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" s="80"/>
-      <c r="B51" s="80"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="80"/>
-      <c r="I51" s="80"/>
-      <c r="J51" s="80"/>
-      <c r="K51" s="80"/>
-      <c r="L51" s="80"/>
-      <c r="M51" s="80"/>
-      <c r="N51" s="80"/>
-      <c r="O51" s="80"/>
-      <c r="P51" s="80"/>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="80"/>
-      <c r="B52" s="80"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="80"/>
-      <c r="G52" s="80"/>
-      <c r="H52" s="80"/>
-      <c r="I52" s="80"/>
-      <c r="J52" s="80"/>
-      <c r="K52" s="80"/>
-      <c r="L52" s="80"/>
-      <c r="M52" s="80"/>
-      <c r="N52" s="80"/>
-      <c r="O52" s="80"/>
-      <c r="P52" s="80"/>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" s="80"/>
-      <c r="B53" s="80"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="80"/>
-      <c r="I53" s="80"/>
-      <c r="J53" s="80"/>
-      <c r="K53" s="80"/>
-      <c r="L53" s="80"/>
-      <c r="M53" s="80"/>
-      <c r="N53" s="80"/>
-      <c r="O53" s="80"/>
-      <c r="P53" s="80"/>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" s="80"/>
-      <c r="B54" s="80"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="80"/>
-      <c r="I54" s="80"/>
-      <c r="J54" s="80"/>
-      <c r="K54" s="80"/>
-      <c r="L54" s="80"/>
-      <c r="M54" s="80"/>
-      <c r="N54" s="80"/>
-      <c r="O54" s="80"/>
-      <c r="P54" s="80"/>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="80"/>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="80"/>
-      <c r="H55" s="80"/>
-      <c r="I55" s="80"/>
-      <c r="J55" s="80"/>
-      <c r="K55" s="80"/>
-      <c r="L55" s="80"/>
-      <c r="M55" s="80"/>
-      <c r="N55" s="80"/>
-      <c r="O55" s="80"/>
-      <c r="P55" s="80"/>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A56" s="80"/>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
-      <c r="G56" s="80"/>
-      <c r="H56" s="80"/>
-      <c r="I56" s="80"/>
-      <c r="J56" s="80"/>
-      <c r="K56" s="80"/>
-      <c r="L56" s="80"/>
-      <c r="M56" s="80"/>
-      <c r="N56" s="80"/>
-      <c r="O56" s="80"/>
-      <c r="P56" s="80"/>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A57" s="80"/>
-      <c r="B57" s="80"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="80"/>
-      <c r="G57" s="80"/>
-      <c r="H57" s="80"/>
-      <c r="I57" s="80"/>
-      <c r="J57" s="80"/>
-      <c r="K57" s="80"/>
-      <c r="L57" s="80"/>
-      <c r="M57" s="80"/>
-      <c r="N57" s="80"/>
-      <c r="O57" s="80"/>
-      <c r="P57" s="80"/>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="80"/>
-      <c r="B58" s="80"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="80"/>
-      <c r="E58" s="80"/>
-      <c r="F58" s="80"/>
-      <c r="G58" s="80"/>
-      <c r="H58" s="80"/>
-      <c r="I58" s="80"/>
-      <c r="J58" s="80"/>
-      <c r="K58" s="80"/>
-      <c r="L58" s="80"/>
-      <c r="M58" s="80"/>
-      <c r="N58" s="80"/>
-      <c r="O58" s="80"/>
-      <c r="P58" s="80"/>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="80"/>
-      <c r="B59" s="80"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="80"/>
-      <c r="I59" s="80"/>
-      <c r="J59" s="80"/>
-      <c r="K59" s="80"/>
-      <c r="L59" s="80"/>
-      <c r="M59" s="80"/>
-      <c r="N59" s="80"/>
-      <c r="O59" s="80"/>
-      <c r="P59" s="80"/>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A60" s="80"/>
-      <c r="B60" s="80"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="80"/>
-      <c r="F60" s="80"/>
-      <c r="G60" s="80"/>
-      <c r="H60" s="80"/>
-      <c r="I60" s="80"/>
-      <c r="J60" s="80"/>
-      <c r="K60" s="80"/>
-      <c r="L60" s="80"/>
-      <c r="M60" s="80"/>
-      <c r="N60" s="80"/>
-      <c r="O60" s="80"/>
-      <c r="P60" s="80"/>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="80"/>
-      <c r="B61" s="80"/>
-      <c r="C61" s="80"/>
-      <c r="D61" s="80"/>
-      <c r="E61" s="80"/>
-      <c r="F61" s="80"/>
-      <c r="G61" s="80"/>
-      <c r="H61" s="80"/>
-      <c r="I61" s="80"/>
-      <c r="J61" s="80"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="80"/>
-      <c r="M61" s="80"/>
-      <c r="N61" s="80"/>
-      <c r="O61" s="80"/>
-      <c r="P61" s="80"/>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O62" s="43"/>
-      <c r="P62" s="43"/>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O63" s="43"/>
-      <c r="P63" s="43"/>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O64" s="43"/>
-      <c r="P64" s="43"/>
+        <v>8.5829736360408346E-2</v>
+      </c>
+      <c r="O25" s="111"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+    </row>
+    <row r="26" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="112"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="112"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="112"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+    </row>
+    <row r="27" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="112"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="112"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+    </row>
+    <row r="28" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="112"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="39"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+    </row>
+    <row r="29" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="112"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="39"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+    </row>
+    <row r="30" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="112"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A33" s="39"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="39"/>
+      <c r="N35" s="39"/>
+      <c r="O35" s="39"/>
+      <c r="P35" s="39"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="39"/>
+      <c r="N36" s="39"/>
+      <c r="O36" s="39"/>
+      <c r="P36" s="39"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A37" s="39"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="39"/>
+      <c r="N37" s="39"/>
+      <c r="O37" s="39"/>
+      <c r="P37" s="39"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="39"/>
+      <c r="M38" s="39"/>
+      <c r="N38" s="39"/>
+      <c r="O38" s="39"/>
+      <c r="P38" s="39"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A39" s="39"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
+      <c r="P40" s="39"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="39"/>
+      <c r="O43" s="39"/>
+      <c r="P43" s="39"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A44" s="39"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="39"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="39"/>
+      <c r="O44" s="39"/>
+      <c r="P44" s="39"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="39"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="39"/>
+      <c r="O45" s="39"/>
+      <c r="P45" s="39"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A47" s="39"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="39"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="39"/>
+      <c r="O47" s="39"/>
+      <c r="P47" s="39"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="39"/>
+      <c r="N48" s="39"/>
+      <c r="O48" s="39"/>
+      <c r="P48" s="39"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
+      <c r="K49" s="39"/>
+      <c r="L49" s="39"/>
+      <c r="M49" s="39"/>
+      <c r="N49" s="39"/>
+      <c r="O49" s="39"/>
+      <c r="P49" s="39"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39"/>
+      <c r="L50" s="39"/>
+      <c r="M50" s="39"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="39"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A51" s="39"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="39"/>
+      <c r="N51" s="39"/>
+      <c r="O51" s="39"/>
+      <c r="P51" s="39"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A52" s="39"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="39"/>
+      <c r="M52" s="39"/>
+      <c r="N52" s="39"/>
+      <c r="O52" s="39"/>
+      <c r="P52" s="39"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A53" s="39"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A54" s="39"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="39"/>
+      <c r="M54" s="39"/>
+      <c r="N54" s="39"/>
+      <c r="O54" s="39"/>
+      <c r="P54" s="39"/>
+      <c r="Q54" s="35"/>
+      <c r="R54" s="35"/>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="39"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="39"/>
+      <c r="P55" s="39"/>
+      <c r="Q55" s="35"/>
+      <c r="R55" s="35"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A56" s="39"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="39"/>
+      <c r="M56" s="39"/>
+      <c r="N56" s="39"/>
+      <c r="O56" s="39"/>
+      <c r="P56" s="39"/>
+      <c r="Q56" s="35"/>
+      <c r="R56" s="35"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A57" s="39"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="39"/>
+      <c r="M57" s="39"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="39"/>
+      <c r="P57" s="39"/>
+      <c r="Q57" s="35"/>
+      <c r="R57" s="35"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A58" s="39"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
+      <c r="K58" s="39"/>
+      <c r="L58" s="39"/>
+      <c r="M58" s="39"/>
+      <c r="N58" s="39"/>
+      <c r="O58" s="39"/>
+      <c r="P58" s="39"/>
+      <c r="Q58" s="35"/>
+      <c r="R58" s="35"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" s="39"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39"/>
+      <c r="K59" s="39"/>
+      <c r="L59" s="39"/>
+      <c r="M59" s="39"/>
+      <c r="N59" s="39"/>
+      <c r="O59" s="39"/>
+      <c r="P59" s="39"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
+      <c r="K60" s="39"/>
+      <c r="L60" s="39"/>
+      <c r="M60" s="39"/>
+      <c r="N60" s="39"/>
+      <c r="O60" s="39"/>
+      <c r="P60" s="39"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="35"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" s="39"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="39"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="39"/>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="35"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O62" s="35"/>
+      <c r="P62" s="35"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
     </row>
     <row r="65" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O65" s="43"/>
-      <c r="P65" s="43"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
     </row>
     <row r="66" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O66" s="43"/>
-      <c r="P66" s="43"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
     </row>
     <row r="67" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O67" s="43"/>
-      <c r="P67" s="43"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
     </row>
     <row r="68" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O68" s="43"/>
-      <c r="P68" s="43"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
     </row>
     <row r="69" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O69" s="43"/>
-      <c r="P69" s="43"/>
+      <c r="O69" s="35"/>
+      <c r="P69" s="35"/>
     </row>
     <row r="70" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O70" s="43"/>
-      <c r="P70" s="43"/>
+      <c r="O70" s="35"/>
+      <c r="P70" s="35"/>
     </row>
     <row r="71" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O71" s="43"/>
-      <c r="P71" s="43"/>
+      <c r="O71" s="35"/>
+      <c r="P71" s="35"/>
     </row>
     <row r="72" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O72" s="43"/>
-      <c r="P72" s="43"/>
+      <c r="O72" s="35"/>
+      <c r="P72" s="35"/>
     </row>
     <row r="73" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O73" s="43"/>
-      <c r="P73" s="43"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="35"/>
     </row>
     <row r="74" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O74" s="43"/>
-      <c r="P74" s="43"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="35"/>
     </row>
     <row r="75" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O75" s="43"/>
-      <c r="P75" s="43"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
     </row>
     <row r="76" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O76" s="43"/>
-      <c r="P76" s="43"/>
+      <c r="O76" s="35"/>
+      <c r="P76" s="35"/>
     </row>
     <row r="77" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O77" s="43"/>
-      <c r="P77" s="43"/>
+      <c r="O77" s="35"/>
+      <c r="P77" s="35"/>
     </row>
     <row r="78" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O78" s="43"/>
-      <c r="P78" s="43"/>
+      <c r="O78" s="35"/>
+      <c r="P78" s="35"/>
     </row>
     <row r="79" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O79" s="43"/>
-      <c r="P79" s="43"/>
+      <c r="O79" s="35"/>
+      <c r="P79" s="35"/>
     </row>
     <row r="80" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O80" s="43"/>
-      <c r="P80" s="43"/>
+      <c r="O80" s="35"/>
+      <c r="P80" s="35"/>
     </row>
     <row r="81" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O81" s="43"/>
-      <c r="P81" s="43"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35"/>
     </row>
     <row r="82" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O82" s="43"/>
-      <c r="P82" s="43"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
     </row>
     <row r="83" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O83" s="43"/>
-      <c r="P83" s="43"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
     </row>
     <row r="84" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O84" s="43"/>
-      <c r="P84" s="43"/>
+      <c r="O84" s="35"/>
+      <c r="P84" s="35"/>
     </row>
     <row r="85" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O85" s="43"/>
-      <c r="P85" s="43"/>
+      <c r="O85" s="35"/>
+      <c r="P85" s="35"/>
     </row>
     <row r="86" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O86" s="43"/>
-      <c r="P86" s="43"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
     </row>
     <row r="87" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O87" s="43"/>
-      <c r="P87" s="43"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
     </row>
     <row r="88" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O88" s="43"/>
-      <c r="P88" s="43"/>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35"/>
     </row>
     <row r="89" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O89" s="43"/>
-      <c r="P89" s="43"/>
+      <c r="O89" s="35"/>
+      <c r="P89" s="35"/>
     </row>
     <row r="90" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O90" s="43"/>
-      <c r="P90" s="43"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="35"/>
     </row>
     <row r="91" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O91" s="43"/>
-      <c r="P91" s="43"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="35"/>
     </row>
     <row r="92" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O92" s="43"/>
-      <c r="P92" s="43"/>
+      <c r="O92" s="35"/>
+      <c r="P92" s="35"/>
     </row>
     <row r="93" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O93" s="43"/>
-      <c r="P93" s="43"/>
+      <c r="O93" s="35"/>
+      <c r="P93" s="35"/>
     </row>
     <row r="94" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O94" s="43"/>
-      <c r="P94" s="43"/>
+      <c r="O94" s="35"/>
+      <c r="P94" s="35"/>
     </row>
     <row r="95" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O95" s="43"/>
-      <c r="P95" s="43"/>
+      <c r="O95" s="35"/>
+      <c r="P95" s="35"/>
     </row>
     <row r="96" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O96" s="43"/>
-      <c r="P96" s="43"/>
+      <c r="O96" s="35"/>
+      <c r="P96" s="35"/>
     </row>
     <row r="97" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O97" s="43"/>
-      <c r="P97" s="43"/>
+      <c r="O97" s="35"/>
+      <c r="P97" s="35"/>
     </row>
     <row r="98" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O98" s="43"/>
-      <c r="P98" s="43"/>
+      <c r="O98" s="35"/>
+      <c r="P98" s="35"/>
     </row>
     <row r="99" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O99" s="43"/>
-      <c r="P99" s="43"/>
+      <c r="O99" s="35"/>
+      <c r="P99" s="35"/>
     </row>
     <row r="100" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O100" s="43"/>
-      <c r="P100" s="43"/>
+      <c r="O100" s="35"/>
+      <c r="P100" s="35"/>
     </row>
     <row r="101" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O101" s="43"/>
-      <c r="P101" s="43"/>
+      <c r="O101" s="35"/>
+      <c r="P101" s="35"/>
     </row>
     <row r="102" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O102" s="43"/>
-      <c r="P102" s="43"/>
+      <c r="O102" s="35"/>
+      <c r="P102" s="35"/>
     </row>
     <row r="103" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O103" s="43"/>
-      <c r="P103" s="43"/>
+      <c r="O103" s="35"/>
+      <c r="P103" s="35"/>
     </row>
     <row r="104" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O104" s="43"/>
-      <c r="P104" s="43"/>
+      <c r="O104" s="35"/>
+      <c r="P104" s="35"/>
     </row>
     <row r="105" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O105" s="43"/>
-      <c r="P105" s="43"/>
+      <c r="O105" s="35"/>
+      <c r="P105" s="35"/>
     </row>
     <row r="106" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O106" s="43"/>
-      <c r="P106" s="43"/>
+      <c r="O106" s="35"/>
+      <c r="P106" s="35"/>
     </row>
     <row r="107" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O107" s="43"/>
-      <c r="P107" s="43"/>
+      <c r="O107" s="35"/>
+      <c r="P107" s="35"/>
     </row>
     <row r="108" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O108" s="43"/>
-      <c r="P108" s="43"/>
+      <c r="O108" s="35"/>
+      <c r="P108" s="35"/>
     </row>
     <row r="109" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O109" s="43"/>
-      <c r="P109" s="43"/>
+      <c r="O109" s="35"/>
+      <c r="P109" s="35"/>
     </row>
     <row r="110" spans="15:16" x14ac:dyDescent="0.2">
-      <c r="O110" s="43"/>
-      <c r="P110" s="43"/>
+      <c r="O110" s="35"/>
+      <c r="P110" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A22:E30"/>
     <mergeCell ref="A1:XFD2"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:E27"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://finbox.com/NYSE:FN/explorer/revenue_proj" xr:uid="{EE12D7AE-13A6-4348-AA34-4BE8EE222E39}"/>

--- a/Technology/Hardware/Fabrinet.xlsx
+++ b/Technology/Hardware/Fabrinet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70FE309-07BC-214C-99FD-2DD385060CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F84681-E1A6-984C-81C1-F4F2DA0FD0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1741,6 +1741,8 @@
       <sheetName val="US Treasury Bonds"/>
       <sheetName val="High Growth"/>
       <sheetName val="GARP"/>
+      <sheetName val="Top Consumer Stocks"/>
+      <sheetName val="Dividend Portfolio"/>
       <sheetName val="Watchlist"/>
       <sheetName val="Small + Speculative"/>
       <sheetName val="Highest Quality"/>
@@ -1760,7 +1762,7 @@
       <sheetData sheetId="7">
         <row r="8">
           <cell r="C8">
-            <v>4.2709999999999998E-2</v>
+            <v>4.1210000000000004E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -1773,6 +1775,8 @@
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1900,11 +1904,11 @@
     <v>Powered by Refinitiv</v>
     <v>183.74</v>
     <v>90.19</v>
-    <v>1.0432999999999999</v>
-    <v>3.04</v>
-    <v>1.8776999999999999E-2</v>
-    <v>0.56000000000000005</v>
-    <v>3.3939999999999999E-3</v>
+    <v>1.0430999999999999</v>
+    <v>1.1399999999999999</v>
+    <v>6.9040000000000004E-3</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
     <v>Fabrinet is a provider of advanced optical packaging and precision optical, electro-mechanical, and electronic manufacturing services to original equipment manufacturers of complex products. The complex products include optical communication components, modules and subsystems, automotive components, medical devices, industrial lasers, and sensors. The Company offers a range of advanced optical and electro-mechanical capabilities across the entire manufacturing process, including process design and engineering, supply chain management, manufacturing, advanced packaging, integration, final assembly, and testing. It focuses on production of high complexity products in any mix and any volume. The Company also designs and fabricates application-specific crystals, lenses, prisms, mirrors, laser components and substrates (customized optics) and other custom and standard borosilicate, clear fused quartz, and synthetic fused silica glass products (customized glass).</v>
     <v>14663</v>
@@ -1912,25 +1916,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>4900 Patrick Henry Drive, SANTA CLARA, CA, 95054 US</v>
-    <v>166.74</v>
+    <v>168.01</v>
     <v>Electronic Equipment &amp; Parts</v>
     <v>Stock</v>
-    <v>45262.039333240624</v>
+    <v>45269.000000022657</v>
     <v>0</v>
-    <v>161.33000000000001</v>
-    <v>5992412048</v>
+    <v>164.5</v>
+    <v>6040005475</v>
     <v>FABRINET</v>
     <v>FABRINET</v>
-    <v>161.33000000000001</v>
-    <v>23.973299999999998</v>
-    <v>161.9</v>
-    <v>164.94</v>
-    <v>165.56</v>
+    <v>164.5</v>
+    <v>24.448599999999999</v>
+    <v>165.11</v>
+    <v>166.25</v>
+    <v>166.25</v>
     <v>36330860</v>
     <v>FN</v>
     <v>FABRINET (XNYS:FN)</v>
-    <v>248506</v>
-    <v>337336</v>
+    <v>187482</v>
+    <v>309845</v>
     <v>1999</v>
   </rv>
   <rv s="2">
@@ -2095,9 +2099,9 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
@@ -15907,7 +15911,7 @@
     <row r="3" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="44" cm="1">
         <f t="array" ref="A3">_FV(A1,"Market cap",TRUE)</f>
-        <v>5992412048</v>
+        <v>6040005475</v>
       </c>
       <c r="B3" s="45" t="s">
         <v>201</v>
@@ -15935,7 +15939,7 @@
       </c>
       <c r="I3" s="49">
         <f>J15*(1+I7)/(I6-I7)</f>
-        <v>7077130787.6355562</v>
+        <v>7070628792.6191349</v>
       </c>
       <c r="J3" s="50" t="s">
         <v>205</v>
@@ -15987,14 +15991,14 @@
       </c>
       <c r="I4" s="36">
         <f>NPV(I6,F15,G15,H15,I15,(J15+I3))</f>
-        <v>5881940744.2785673</v>
+        <v>5876233270.3184881</v>
       </c>
       <c r="J4" s="55" t="s">
         <v>211</v>
       </c>
       <c r="K4" s="57" cm="1">
         <f t="array" ref="K4">_FV(A1,"Change (%)",TRUE)</f>
-        <v>1.8776999999999999E-2</v>
+        <v>6.9040000000000004E-3</v>
       </c>
       <c r="L4" s="58" t="s">
         <v>251</v>
@@ -16039,14 +16043,14 @@
       </c>
       <c r="I5" s="36">
         <f>I4+G5-G6</f>
-        <v>6418985744.2785673</v>
+        <v>6413278270.3184881</v>
       </c>
       <c r="J5" s="55" t="s">
         <v>217</v>
       </c>
       <c r="K5" s="60" cm="1">
         <f t="array" ref="K5">_FV(A1,"Price")</f>
-        <v>164.94</v>
+        <v>166.25</v>
       </c>
       <c r="L5" s="61" t="s">
         <v>218</v>
@@ -16066,7 +16070,7 @@
     <row r="6" spans="1:18" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="62">
         <f>O20/F10</f>
-        <v>2.1011262440392708</v>
+        <v>2.1178139814165498</v>
       </c>
       <c r="B6" s="54" t="s">
         <v>220</v>
@@ -16094,14 +16098,14 @@
       </c>
       <c r="I6" s="57">
         <f>N25</f>
-        <v>8.5829736360408346E-2</v>
+        <v>8.5885674050572264E-2</v>
       </c>
       <c r="J6" s="55" t="s">
         <v>223</v>
       </c>
       <c r="K6" s="38">
         <f>I5/G4</f>
-        <v>180.73687138362087</v>
+        <v>180.57616827130008</v>
       </c>
       <c r="L6" s="63" t="s">
         <v>224</v>
@@ -16121,14 +16125,14 @@
     <row r="7" spans="1:18" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="64">
         <f>O20/F12</f>
-        <v>19.647252616393441</v>
+        <v>19.803296639344261</v>
       </c>
       <c r="B7" s="65" t="s">
         <v>226</v>
       </c>
       <c r="C7" s="66">
         <f>F15/O21</f>
-        <v>4.0460651692543786E-2</v>
+        <v>4.014254087639154E-2</v>
       </c>
       <c r="D7" s="65" t="s">
         <v>227</v>
@@ -16155,7 +16159,7 @@
       </c>
       <c r="K7" s="72">
         <f>K6/K5-1</f>
-        <v>9.5773441152060546E-2</v>
+        <v>8.6172440729624489E-2</v>
       </c>
       <c r="L7" s="73" t="s">
         <v>230</v>
@@ -16482,7 +16486,7 @@
       </c>
       <c r="O14" s="101">
         <f>'[1]US Treasury Bonds'!$C$8</f>
-        <v>4.2709999999999998E-2</v>
+        <v>4.1210000000000004E-2</v>
       </c>
       <c r="P14" s="35"/>
       <c r="Q14" s="35"/>
@@ -16529,7 +16533,7 @@
       </c>
       <c r="O15" s="102" cm="1">
         <f t="array" ref="O15">_FV(A1,"Beta")</f>
-        <v>1.0432999999999999</v>
+        <v>1.0430999999999999</v>
       </c>
       <c r="P15" s="35"/>
       <c r="Q15" s="35"/>
@@ -16634,7 +16638,7 @@
       </c>
       <c r="O17" s="104">
         <f>(O14)+((O15)*(O16-O14))</f>
-        <v>8.5787856999999995E-2</v>
+        <v>8.5844249000000011E-2</v>
       </c>
       <c r="P17" s="35"/>
       <c r="Q17" s="35"/>
@@ -16716,7 +16720,7 @@
       </c>
       <c r="O20" s="105" cm="1">
         <f t="array" ref="O20">_FV(A1,"Market cap",TRUE)</f>
-        <v>5992412048</v>
+        <v>6040005475</v>
       </c>
       <c r="P20" s="35"/>
       <c r="Q20" s="35"/>
@@ -16746,7 +16750,7 @@
       </c>
       <c r="O21" s="105">
         <f>O19+O20</f>
-        <v>6005835048</v>
+        <v>6053428475</v>
       </c>
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
@@ -16774,7 +16778,7 @@
       </c>
       <c r="O22" s="106">
         <f>(O19/O21)</f>
-        <v>2.2349931179794866E-3</v>
+        <v>2.2174210954065995E-3</v>
       </c>
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
@@ -16799,7 +16803,7 @@
       </c>
       <c r="O23" s="107">
         <f>O20/O21</f>
-        <v>0.99776500688202052</v>
+        <v>0.99778257890459343</v>
       </c>
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
@@ -16843,7 +16847,7 @@
       <c r="M25" s="39"/>
       <c r="N25" s="110">
         <f>(O22*O12)+(O23*O17)</f>
-        <v>8.5829736360408346E-2</v>
+        <v>8.5885674050572264E-2</v>
       </c>
       <c r="O25" s="111"/>
       <c r="P25" s="35"/>
